--- a/public/templates/official-group-student.xlsx
+++ b/public/templates/official-group-student.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="141">
   <si>
     <t>STT</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Số điện thoại phụ huynh</t>
   </si>
   <si>
-    <t>28/03/2003</t>
-  </si>
-  <si>
     <t>K66TTNTA</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>Thảo</t>
   </si>
   <si>
-    <t>26/01/2003</t>
-  </si>
-  <si>
     <t>0967845072</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
     <t>Đức</t>
   </si>
   <si>
-    <t>31/10/2002</t>
-  </si>
-  <si>
     <t>K65ATTT</t>
   </si>
   <si>
@@ -183,9 +174,6 @@
     <t>Huy</t>
   </si>
   <si>
-    <t>16/07/2002</t>
-  </si>
-  <si>
     <t>vuhuy167@gmail.com</t>
   </si>
   <si>
@@ -201,9 +189,6 @@
     <t>Nguyên</t>
   </si>
   <si>
-    <t>06/01/2004</t>
-  </si>
-  <si>
     <t>K66ATTT</t>
   </si>
   <si>
@@ -426,20 +411,53 @@
     <t>*</t>
   </si>
   <si>
-    <t>DANH SÁCH NHÓM SINH VIÊN CHÍNH THỨC</t>
-  </si>
-  <si>
     <t>Trương Tuấn</t>
   </si>
   <si>
     <t>Hoàng</t>
+  </si>
+  <si>
+    <t>Kiểu số nguyên
+(Bắt buộc)</t>
+  </si>
+  <si>
+    <t>Kiểu chuỗi/50
+(Bắt buộc)</t>
+  </si>
+  <si>
+    <t>Kiểu chuỗi/10
+(Bắt buộc)</t>
+  </si>
+  <si>
+    <t>dd/MM/yyyy
+(Không bắt buộc)</t>
+  </si>
+  <si>
+    <t>Kiểu chuỗi/20
+(Bắt buộc)</t>
+  </si>
+  <si>
+    <t>Kiểu chuỗi/255
+(Bắt buộc)</t>
+  </si>
+  <si>
+    <t>Kiểu chuỗi/20
+(Không bắt buộc)</t>
+  </si>
+  <si>
+    <t>Kiểu chuỗi/255
+(Không bắt buộc)</t>
+  </si>
+  <si>
+    <t>Kiểu ký tự
+(Bắt buộc là *)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,13 +492,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -508,7 +519,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -531,21 +542,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -564,7 +566,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -577,15 +578,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -868,173 +860,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
     <col min="12" max="12" width="20.28515625" customWidth="1"/>
     <col min="13" max="13" width="21.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="15" max="16" width="18.28515625" customWidth="1"/>
     <col min="17" max="17" width="18.140625" customWidth="1"/>
     <col min="18" max="18" width="18.5703125" customWidth="1"/>
     <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
     <col min="21" max="21" width="28.5703125" customWidth="1"/>
     <col min="22" max="22" width="24.42578125" customWidth="1"/>
     <col min="23" max="23" width="24.140625" customWidth="1"/>
     <col min="24" max="24" width="34.28515625" customWidth="1"/>
-    <col min="25" max="25" width="16" style="11" customWidth="1"/>
-    <col min="26" max="26" width="20.85546875" style="11" customWidth="1"/>
+    <col min="25" max="25" width="16" style="10" customWidth="1"/>
+    <col min="26" max="26" width="20.85546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
+      <c r="H1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:26" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>24</v>
+      <c r="D3" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7">
+        <v>6662012</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -1042,38 +1128,34 @@
       <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>134</v>
-      </c>
+      <c r="D4" s="13"/>
       <c r="E4" s="7" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7">
+        <v>6662205</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="7">
-        <v>6662012</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -1082,64 +1164,62 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
       <c r="C5" s="6">
-        <v>2</v>
-      </c>
-      <c r="D5" s="14"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="13"/>
       <c r="E5" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G5" s="7"/>
       <c r="H5" s="7">
-        <v>6662205</v>
+        <v>652371</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -1148,27 +1228,27 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z5" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6">
         <v>2</v>
@@ -1176,36 +1256,36 @@
       <c r="C6" s="6">
         <v>3</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="E6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7">
+        <v>655375</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="7">
-        <v>652371</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -1214,27 +1294,27 @@
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z6" s="9" t="s">
         <v>51</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
@@ -1242,38 +1322,34 @@
       <c r="C7" s="6">
         <v>3</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>134</v>
-      </c>
+      <c r="D7" s="13"/>
       <c r="E7" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>54</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G7" s="7"/>
       <c r="H7" s="7">
-        <v>655375</v>
+        <v>6666757</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -1282,64 +1358,64 @@
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W7" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z7" s="9" t="s">
         <v>57</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="6">
         <v>3</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G8" s="7"/>
       <c r="H8" s="7">
-        <v>6666757</v>
+        <v>6650264</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -1348,27 +1424,27 @@
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z8" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y8" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z8" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6">
         <v>3</v>
@@ -1376,38 +1452,34 @@
       <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>134</v>
-      </c>
+      <c r="D9" s="13"/>
       <c r="E9" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="8">
-        <v>38534</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G9" s="7"/>
       <c r="H9" s="7">
-        <v>6650264</v>
+        <v>6662153</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="K9" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -1416,27 +1488,27 @@
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y9" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z9" s="9" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="X9" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6">
         <v>3</v>
@@ -1444,36 +1516,34 @@
       <c r="C10" s="6">
         <v>3</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="8">
-        <v>38535</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="7">
-        <v>6662153</v>
+        <v>6662467</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -1482,61 +1552,59 @@
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X10" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y10" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z10" s="9" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="6">
-        <v>3</v>
-      </c>
-      <c r="D11" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="D11" s="13"/>
       <c r="E11" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="8">
-        <v>38536</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G11" s="7"/>
       <c r="H11" s="7">
-        <v>6662467</v>
+        <v>6654305</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>112</v>
@@ -1548,27 +1616,27 @@
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z11" s="9" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6">
         <v>4</v>
@@ -1576,36 +1644,34 @@
       <c r="C12" s="6">
         <v>5</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="8">
-        <v>38537</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="7">
-        <v>6654305</v>
+        <v>672041</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -1614,27 +1680,27 @@
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z12" s="9" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="X12" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6">
         <v>4</v>
@@ -1642,36 +1708,34 @@
       <c r="C13" s="6">
         <v>5</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="8">
-        <v>38538</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G13" s="7"/>
       <c r="H13" s="7">
-        <v>672041</v>
+        <v>6650967</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -1680,27 +1744,27 @@
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X13" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z13" s="9" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="6">
         <v>4</v>
@@ -1708,36 +1772,34 @@
       <c r="C14" s="6">
         <v>5</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="8">
-        <v>38539</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G14" s="7"/>
       <c r="H14" s="7">
-        <v>6650967</v>
+        <v>6667095</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -1746,27 +1808,27 @@
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z14" s="9" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="6">
         <v>4</v>
@@ -1774,36 +1836,36 @@
       <c r="C15" s="6">
         <v>5</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="8">
-        <v>38540</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G15" s="7"/>
       <c r="H15" s="7">
-        <v>6667095</v>
+        <v>6665591</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -1812,66 +1874,62 @@
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X15" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z15" s="9" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="X15" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="6">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6">
         <v>4</v>
       </c>
-      <c r="C16" s="6">
-        <v>5</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>134</v>
-      </c>
+      <c r="D16" s="13"/>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="8">
-        <v>38541</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G16" s="7"/>
       <c r="H16" s="7">
-        <v>6665591</v>
+        <v>6653379</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -1880,27 +1938,27 @@
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X16" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z16" s="9" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="X16" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6">
         <v>5</v>
@@ -1908,36 +1966,34 @@
       <c r="C17" s="6">
         <v>4</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7">
+        <v>6653213</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="8">
-        <v>38542</v>
-      </c>
-      <c r="H17" s="7">
-        <v>6653379</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -1946,27 +2002,27 @@
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X17" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y17" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z17" s="9" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="X17" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:26" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6">
         <v>5</v>
@@ -1974,36 +2030,36 @@
       <c r="C18" s="6">
         <v>4</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="8">
-        <v>38543</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G18" s="7"/>
       <c r="H18" s="7">
-        <v>6653213</v>
+        <v>6666014</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -2012,27 +2068,27 @@
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X18" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z18" s="9" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="X18" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z18" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6">
         <v>5</v>
@@ -2040,38 +2096,34 @@
       <c r="C19" s="6">
         <v>4</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>134</v>
-      </c>
+      <c r="D19" s="13"/>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="8">
-        <v>38544</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="7">
-        <v>6666014</v>
+        <v>6652364</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -2080,64 +2132,64 @@
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X19" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z19" s="9" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="X19" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:26" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" s="6">
-        <v>4</v>
-      </c>
-      <c r="D20" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="8">
-        <v>38545</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G20" s="7"/>
       <c r="H20" s="7">
-        <v>6652364</v>
+        <v>6653105</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -2146,27 +2198,27 @@
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="V20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X20" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y20" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z20" s="9" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="X20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z20" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:26" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="6">
         <v>6</v>
@@ -2174,38 +2226,34 @@
       <c r="C21" s="6">
         <v>2</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>134</v>
-      </c>
+      <c r="D21" s="13"/>
       <c r="E21" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="8">
-        <v>38546</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G21" s="7"/>
       <c r="H21" s="7">
-        <v>6653105</v>
+        <v>6660519</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -2214,113 +2262,43 @@
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X21" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z21" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>19</v>
-      </c>
-      <c r="B22" s="6">
-        <v>6</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="8">
-        <v>38547</v>
-      </c>
-      <c r="H22" s="7">
-        <v>6660519</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="V22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="W22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X22" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z22" s="9" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="X21" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z21" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="A2:Z2"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="X5" r:id="rId1"/>
-    <hyperlink ref="X22" r:id="rId2"/>
-    <hyperlink ref="X21" r:id="rId3"/>
-    <hyperlink ref="X20" r:id="rId4"/>
-    <hyperlink ref="X19" r:id="rId5"/>
-    <hyperlink ref="X18" r:id="rId6"/>
-    <hyperlink ref="X17" r:id="rId7"/>
-    <hyperlink ref="X16" r:id="rId8"/>
-    <hyperlink ref="X15" r:id="rId9"/>
-    <hyperlink ref="X14" r:id="rId10"/>
-    <hyperlink ref="X13" r:id="rId11"/>
-    <hyperlink ref="X12" r:id="rId12"/>
-    <hyperlink ref="X11" r:id="rId13"/>
-    <hyperlink ref="X10" r:id="rId14"/>
-    <hyperlink ref="X10:X22" r:id="rId15" display="a@gmail.com"/>
-    <hyperlink ref="X9" r:id="rId16"/>
-    <hyperlink ref="X4" r:id="rId17"/>
+    <hyperlink ref="X4" r:id="rId1"/>
+    <hyperlink ref="X21" r:id="rId2"/>
+    <hyperlink ref="X20" r:id="rId3"/>
+    <hyperlink ref="X19" r:id="rId4"/>
+    <hyperlink ref="X18" r:id="rId5"/>
+    <hyperlink ref="X17" r:id="rId6"/>
+    <hyperlink ref="X16" r:id="rId7"/>
+    <hyperlink ref="X15" r:id="rId8"/>
+    <hyperlink ref="X14" r:id="rId9"/>
+    <hyperlink ref="X13" r:id="rId10"/>
+    <hyperlink ref="X12" r:id="rId11"/>
+    <hyperlink ref="X11" r:id="rId12"/>
+    <hyperlink ref="X10" r:id="rId13"/>
+    <hyperlink ref="X9" r:id="rId14"/>
+    <hyperlink ref="X9:X21" r:id="rId15" display="a@gmail.com"/>
+    <hyperlink ref="X8" r:id="rId16"/>
+    <hyperlink ref="X3" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>

--- a/public/templates/official-group-student.xlsx
+++ b/public/templates/official-group-student.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="143">
   <si>
     <t>STT</t>
   </si>
@@ -451,6 +451,16 @@
   <si>
     <t>Kiểu ký tự
 (Bắt buộc là *)</t>
+  </si>
+  <si>
+    <t>Kiểu chuỗi/20
+(Bắt buộc)
+Số điện thoại của sinh viên</t>
+  </si>
+  <si>
+    <t>Kiểu chuỗi/255
+(Bắt buộc)
+Email của sinh viên</t>
   </si>
 </sst>
 </file>
@@ -862,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,10 +973,10 @@
         <v>139</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>136</v>
